--- a/frontend/public/examples/wb-barcodes-example.xlsx
+++ b/frontend/public/examples/wb-barcodes-example.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Баркоды WB" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Товары" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -27,17 +27,24 @@
     </font>
     <font>
       <b val="1"/>
+      <sz val="10"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E8F5E9"/>
+        <bgColor rgb="00E8F5E9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,13 +52,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -417,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,13 +444,20 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="26" customWidth="1" min="2" max="2"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="22" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="18" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="28" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="35" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Баркод</t>
@@ -440,157 +465,243 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Наименование</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Артикул</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Размер</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Цвет</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Наименование</t>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Бренд</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Состав</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Страна</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Производитель</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Дата производства</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Импортёр</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Сертификат</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>4601234567890</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ABC-001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Футболка женская хлопок</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>FTB-001</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>Белый</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Футболка хлопок</t>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Nike</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>100% хлопок</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>Китай</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>ООО ТекстильПро</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>01.01.2026</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>ООО Импорт</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>ЕАЭС N RU Д-CN.АД65.В.01234/25</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>4601234567891</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ABC-001</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Футболка женская хлопок</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>FTB-001</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>Белый</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Футболка хлопок</t>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>Nike</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>100% хлопок</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>Китай</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>ООО ТекстильПро</t>
+        </is>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>01.01.2026</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>ООО Импорт</t>
+        </is>
+      </c>
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>ЕАЭС N RU Д-CN.АД65.В.01234/25</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>4601234567892</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ABC-001</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Белый</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Футболка хлопок</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4607654321098</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>XYZ-002</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Черный</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Джинсы slim</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4607654321099</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>XYZ-002</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Черный</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Джинсы slim</t>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Джинсы мужские классические</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>JNS-042</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>Синий</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>Levis</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>98% хлопок, 2% эластан</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>Турция</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>ИП Иванов И.И.</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>15.12.2025</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>ИП Иванов И.И.</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>РОСС RU.АВ71.Н12345</t>
         </is>
       </c>
     </row>

--- a/frontend/public/examples/wb-barcodes-example.xlsx
+++ b/frontend/public/examples/wb-barcodes-example.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Товары" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Инструкция" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,6 +29,21 @@
     <font>
       <b val="1"/>
       <sz val="10"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -62,7 +78,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -70,6 +86,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -708,4 +728,145 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="85" customWidth="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>ИНСТРУКЦИЯ ПО ЗАПОЛНЕНИЮ EXCEL ФАЙЛА</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>ЛИМИТЫ ПОЛЕЙ ДЛЯ ШАБЛОНОВ ЭТИКЕТОК</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Количество полей из Excel, которые поместятся на этикетке, зависит от выбранного шаблона и размера:</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>╔═══════════════╦════════╦═══════════════╦═════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>║ Шаблон        ║ Размер ║ Полей из Excel║ Пример полей                                    ║</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>╠═══════════════╬════════╬═══════════════╬═════════════════════════════════════════════════╣</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>║ Basic         ║ 58x30  ║ 4             ║ название + артикул, размер, цвет                ║</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>║ Basic         ║ 58x40  ║ 5             ║ название + артикул, размер, цвет, бренд         ║</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>║ Basic         ║ 58x60  ║ 5             ║ название + артикул, размер, цвет, бренд         ║</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>║ Professional  ║ 58x40  ║ 11            ║ название + 10 дополнительных полей              ║</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>║ Extended      ║ 58x40  ║ 12            ║ все поля включая название                       ║</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>║ Extended      ║ 58x60  ║ 12            ║ все поля включая название                       ║</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>╚═══════════════╩════════╩═══════════════╩═════════════════════════════════════════════════╝</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>ВАЖНО:</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Организация и ИНН берутся из настроек профиля, НЕ из Excel</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Лишние колонки (Номер, Пол, Цена и т.д.) игнорируются системой</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • При превышении лимита поля обрезаются по приоритету (артикул &gt; размер &gt; цвет &gt; ...)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/frontend/public/examples/wb-barcodes-example.xlsx
+++ b/frontend/public/examples/wb-barcodes-example.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,22 +28,30 @@
     </font>
     <font>
       <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00366092"/>
+      <sz val="14"/>
+    </font>
+    <font>
       <sz val="10"/>
     </font>
     <font>
       <b val="1"/>
-      <sz val="14"/>
+      <color rgb="00366092"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Courier New"/>
+      <sz val="9"/>
     </font>
     <font>
       <b val="1"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <color rgb="00C00000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="3">
@@ -55,8 +63,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E8F5E9"/>
-        <bgColor rgb="00E8F5E9"/>
+        <fgColor rgb="00366092"/>
+        <bgColor rgb="00366092"/>
       </patternFill>
     </fill>
   </fills>
@@ -78,18 +86,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -464,20 +483,20 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="26" customWidth="1" min="2" max="2"/>
-    <col width="11" customWidth="1" min="3" max="3"/>
-    <col width="8" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="22" customWidth="1" min="7" max="7"/>
-    <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="18" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="28" customWidth="1" min="12" max="12"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="30" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35" customHeight="1">
+    <row r="1" ht="30" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Баркод</t>
@@ -547,7 +566,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Футболка женская хлопок</t>
+          <t>Футболка женская базовая</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -582,7 +601,7 @@
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>ООО ТекстильПро</t>
+          <t>ООО Текстиль</t>
         </is>
       </c>
       <c r="J2" s="2" t="inlineStr">
@@ -597,7 +616,7 @@
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>ЕАЭС N RU Д-CN.АД65.В.01234/25</t>
+          <t>ЕАЭС N RU Д-CN.АЯ46.В.12345/21</t>
         </is>
       </c>
     </row>
@@ -609,7 +628,7 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Футболка женская хлопок</t>
+          <t>Футболка женская базовая</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -624,7 +643,7 @@
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>Белый</t>
+          <t>Чёрный</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
@@ -644,7 +663,7 @@
       </c>
       <c r="I3" s="2" t="inlineStr">
         <is>
-          <t>ООО ТекстильПро</t>
+          <t>ООО Текстиль</t>
         </is>
       </c>
       <c r="J3" s="2" t="inlineStr">
@@ -659,7 +678,7 @@
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>ЕАЭС N RU Д-CN.АД65.В.01234/25</t>
+          <t>ЕАЭС N RU Д-CN.АЯ46.В.12345/21</t>
         </is>
       </c>
     </row>
@@ -671,57 +690,57 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Джинсы мужские классические</t>
+          <t>Футболка женская базовая</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>JNS-042</t>
+          <t>FTB-001</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>Синий</t>
+          <t>Серый</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>Levis</t>
+          <t>Nike</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>98% хлопок, 2% эластан</t>
+          <t>100% хлопок</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>Турция</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>ИП Иванов И.И.</t>
+          <t>ООО Текстиль</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>15.12.2025</t>
+          <t>01.01.2026</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>ИП Иванов И.И.</t>
+          <t>ООО Импорт</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>РОСС RU.АВ71.Н12345</t>
+          <t>ЕАЭС N RU Д-CN.АЯ46.В.12345/21</t>
         </is>
       </c>
     </row>
@@ -736,7 +755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -744,125 +763,527 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="85" customWidth="1" min="1" max="1"/>
+    <col width="100" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="25" customHeight="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
           <t>ИНСТРУКЦИЯ ПО ЗАПОЛНЕНИЮ EXCEL ФАЙЛА</t>
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr"/>
+    </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>ЛИМИТЫ ПОЛЕЙ ДЛЯ ШАБЛОНОВ ЭТИКЕТОК</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>Количество полей из Excel, которые поместятся на этикетке, зависит от выбранного шаблона и размера:</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>╔═══════════════╦════════╦═══════════════╦═════════════════════════════════════════════════╗</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>║ Шаблон        ║ Размер ║ Полей из Excel║ Пример полей                                    ║</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>╠═══════════════╬════════╬═══════════════╬═════════════════════════════════════════════════╣</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>║ Basic         ║ 58x30  ║ 4             ║ название + артикул, размер, цвет                ║</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>║ Basic         ║ 58x40  ║ 5             ║ название + артикул, размер, цвет, бренд         ║</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="5" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>║ Basic         ║ 58x60  ║ 5             ║ название + артикул, размер, цвет, бренд         ║</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="5" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
         <is>
           <t>║ Professional  ║ 58x40  ║ 11            ║ название + 10 дополнительных полей              ║</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="5" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="6" t="inlineStr">
         <is>
           <t>║ Extended      ║ 58x40  ║ 12            ║ все поля включая название                       ║</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="5" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="6" t="inlineStr">
         <is>
           <t>║ Extended      ║ 58x60  ║ 12            ║ все поля включая название                       ║</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="5" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="6" t="inlineStr">
         <is>
           <t>╚═══════════════╩════════╩═══════════════╩═════════════════════════════════════════════════╝</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="inlineStr">
+      <c r="A17" s="4" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="inlineStr">
         <is>
           <t>ВАЖНО:</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">  • Организация и ИНН берутся из настроек профиля, НЕ из Excel</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">  • Лишние колонки (Номер, Пол, Цена и т.д.) игнорируются системой</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  • При превышении лимита поля обрезаются по приоритету (артикул &gt; размер &gt; цвет &gt; ...)</t>
+    <row r="21">
+      <c r="A21" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Баркод обязателен — по нему происходит матчинг с кодами Честный знак</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Если полей больше лимита — берутся по приоритету (см. ниже)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>ПРИОРИТЕТ ПОЛЕЙ ПРИ ОБРЕЗКЕ ДО ЛИМИТА:</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1. Название — всегда первым</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  2. Артикул — идентификатор товара</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  3. Размер</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  4. Цвет</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  5. Бренд</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  6. Состав</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  7. Страна производства</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  8. Производитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  9. Импортёр</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  10. Дата производства</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  11. Сертификат</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="inlineStr">
+        <is>
+          <t>ПОДДЕРЖИВАЕМЫЕ КОЛОНКИ EXCEL:</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="inlineStr">
+        <is>
+          <t>Баркод (обязательно):</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Баркод, Штрихкод, Штрихкод товара, ШК</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="inlineStr">
+        <is>
+          <t>Наименование:</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Наименование, Название, Товар</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="inlineStr">
+        <is>
+          <t>Артикул:</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Артикул, Артикул поставщика, Арт</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="inlineStr">
+        <is>
+          <t>Размер:</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Размер, Рос. размер</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="inlineStr">
+        <is>
+          <t>Цвет:</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Цвет, Артикул цвета</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="inlineStr">
+        <is>
+          <t>Бренд:</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Бренд, Торговая марка</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="4" t="inlineStr">
+        <is>
+          <t>Состав:</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Состав, Материал</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="4" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="inlineStr">
+        <is>
+          <t>Страна производства:</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Страна, Страна производства</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="4" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="4" t="inlineStr">
+        <is>
+          <t>Производитель:</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Производитель, Изготовитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="4" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="4" t="inlineStr">
+        <is>
+          <t>Дата производства:</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Дата производства, Дата изготовления</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="4" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="4" t="inlineStr">
+        <is>
+          <t>Импортёр:</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Импортёр</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="4" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="4" t="inlineStr">
+        <is>
+          <t>Сертификат:</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Сертификат, Декларация</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="4" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="4" t="inlineStr">
+        <is>
+          <t>═══════════════════════════════════════════════════════════════════════════════</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="4" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="5" t="inlineStr">
+        <is>
+          <t>РЕКОМЕНДАЦИИ:</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Для начала используйте шаблон Basic 58x40 — он подходит для большинства случаев</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Если нужно больше информации — попробуйте Extended 58x60</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Professional подходит для маркировки с большим количеством реквизитов</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Длинные названия товаров автоматически обрезаются с многоточием</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Система автоматически проверяет читаемость DataMatrix (минимум 22x22мм)</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="4" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="5" t="inlineStr">
+        <is>
+          <t>ПРИМЕР ЗАПОЛНЕНИЯ:</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  См. лист 'Товары' — там приведены 3 примера корректно заполненных строк</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="4" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="4" t="inlineStr">
+        <is>
+          <t>По вопросам работы с сервисом обращайтесь в поддержку: @kleykod_support</t>
         </is>
       </c>
     </row>
